--- a/src/main/resources/Supplier.xlsx
+++ b/src/main/resources/Supplier.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9024" firstSheet="2"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="2"/>
   </bookViews>
   <sheets>
     <sheet name="9 Jan" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">                                                                                 Supplier Master</t>
   </si>
@@ -154,26 +167,20 @@
     <t>Alternate Email</t>
   </si>
   <si>
-    <t>material</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Service</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,13 +210,6 @@
       <color theme="9" tint="-0.249977111117893"/>
       <name val="Bookman Old Style"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -717,148 +717,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -900,7 +900,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1214,49 +1214,49 @@
   <dimension ref="A1:AS20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E3" sqref="E3:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.28703703703704" customWidth="1"/>
-    <col min="2" max="2" width="14.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="28.712962962963" customWidth="1"/>
-    <col min="4" max="4" width="24.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="19.212962962963" customWidth="1"/>
-    <col min="6" max="6" width="23.3981481481481" customWidth="1"/>
-    <col min="7" max="7" width="37.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="26.4074074074074" customWidth="1"/>
-    <col min="9" max="9" width="27.0555555555556" customWidth="1"/>
-    <col min="10" max="10" width="15.6851851851852" customWidth="1"/>
-    <col min="11" max="11" width="15.8148148148148" customWidth="1"/>
-    <col min="12" max="12" width="18.9444444444444" customWidth="1"/>
-    <col min="13" max="13" width="20.9074074074074" customWidth="1"/>
-    <col min="14" max="14" width="22.6111111111111" customWidth="1"/>
-    <col min="15" max="15" width="21.4351851851852" customWidth="1"/>
-    <col min="16" max="16" width="21.3055555555556" customWidth="1"/>
-    <col min="17" max="17" width="18.8240740740741" customWidth="1"/>
-    <col min="18" max="18" width="13.7222222222222" customWidth="1"/>
-    <col min="19" max="19" width="19.2037037037037" customWidth="1"/>
-    <col min="20" max="20" width="10.8518518518519" customWidth="1"/>
-    <col min="21" max="21" width="18.287037037037" customWidth="1"/>
-    <col min="22" max="30" width="14.712962962963" customWidth="1"/>
-    <col min="31" max="32" width="21.5740740740741" customWidth="1"/>
-    <col min="33" max="33" width="18.5740740740741" customWidth="1"/>
-    <col min="34" max="35" width="9.42592592592593" customWidth="1"/>
-    <col min="36" max="36" width="10.712962962963" customWidth="1"/>
+    <col min="1" max="1" width="9.29090909090909" customWidth="1"/>
+    <col min="2" max="2" width="14.1363636363636" customWidth="1"/>
+    <col min="3" max="3" width="28.7090909090909" customWidth="1"/>
+    <col min="4" max="4" width="24.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="19.2090909090909" customWidth="1"/>
+    <col min="6" max="6" width="23.4" customWidth="1"/>
+    <col min="7" max="7" width="37.7818181818182" customWidth="1"/>
+    <col min="8" max="8" width="26.4090909090909" customWidth="1"/>
+    <col min="9" max="9" width="27.0545454545455" customWidth="1"/>
+    <col min="10" max="10" width="15.6818181818182" customWidth="1"/>
+    <col min="11" max="11" width="15.8181818181818" customWidth="1"/>
+    <col min="12" max="12" width="18.9454545454545" customWidth="1"/>
+    <col min="13" max="13" width="20.9090909090909" customWidth="1"/>
+    <col min="14" max="14" width="22.6090909090909" customWidth="1"/>
+    <col min="15" max="15" width="21.4363636363636" customWidth="1"/>
+    <col min="16" max="16" width="21.3090909090909" customWidth="1"/>
+    <col min="17" max="17" width="18.8272727272727" customWidth="1"/>
+    <col min="18" max="18" width="13.7181818181818" customWidth="1"/>
+    <col min="19" max="19" width="19.2" customWidth="1"/>
+    <col min="20" max="20" width="10.8545454545455" customWidth="1"/>
+    <col min="21" max="21" width="18.2909090909091" customWidth="1"/>
+    <col min="22" max="30" width="14.7090909090909" customWidth="1"/>
+    <col min="31" max="32" width="21.5727272727273" customWidth="1"/>
+    <col min="33" max="33" width="18.5727272727273" customWidth="1"/>
+    <col min="34" max="35" width="9.42727272727273" customWidth="1"/>
+    <col min="36" max="36" width="10.7090909090909" customWidth="1"/>
     <col min="37" max="37" width="14" customWidth="1"/>
-    <col min="38" max="38" width="12.712962962963" customWidth="1"/>
-    <col min="39" max="39" width="18.712962962963" customWidth="1"/>
-    <col min="40" max="40" width="16.712962962963" customWidth="1"/>
-    <col min="41" max="41" width="12.5740740740741" customWidth="1"/>
-    <col min="42" max="42" width="11.287037037037" customWidth="1"/>
-    <col min="43" max="43" width="10.712962962963" customWidth="1"/>
-    <col min="44" max="44" width="17.8518518518519" customWidth="1"/>
-    <col min="45" max="45" width="18.1388888888889" customWidth="1"/>
+    <col min="38" max="38" width="12.7090909090909" customWidth="1"/>
+    <col min="39" max="39" width="18.7090909090909" customWidth="1"/>
+    <col min="40" max="40" width="16.7090909090909" customWidth="1"/>
+    <col min="41" max="41" width="12.5727272727273" customWidth="1"/>
+    <col min="42" max="42" width="11.2909090909091" customWidth="1"/>
+    <col min="43" max="43" width="10.7090909090909" customWidth="1"/>
+    <col min="44" max="44" width="17.8545454545455" customWidth="1"/>
+    <col min="45" max="45" width="18.1363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.95" spans="1:45">
+    <row r="1" ht="25.25" spans="1:45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1305,7 @@
       <c r="AR1" s="2"/>
       <c r="AS1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="40.35" spans="1:45">
+    <row r="2" s="1" customFormat="1" ht="38.25" spans="1:45">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1447,9 +1447,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1488,7 +1486,7 @@
       <c r="AO3" s="6"/>
       <c r="AP3" s="10"/>
       <c r="AQ3" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR3" s="10"/>
       <c r="AS3" s="10"/>
@@ -1498,9 +1496,7 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
